--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,13 +384,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
@@ -487,6 +487,88 @@
         <v>69</v>
       </c>
     </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42600.829224537039</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>77</v>
+      </c>
+      <c r="I3">
+        <v>23</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42600.882037037038</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>85</v>
+      </c>
+      <c r="I4">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>45</v>
+      </c>
+      <c r="M4">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -569,6 +569,47 @@
         <v>55</v>
       </c>
     </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42602.016458333332</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>89</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>60</v>
+      </c>
+      <c r="M5">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -610,6 +610,47 @@
         <v>40</v>
       </c>
     </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42602.584120370368</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>85</v>
+      </c>
+      <c r="I6">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>86</v>
+      </c>
+      <c r="M6">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -384,7 +384,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,6 +651,47 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42604.891458333332</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>42</v>
+      </c>
+      <c r="I7">
+        <v>58</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>33</v>
+      </c>
+      <c r="M7">
+        <v>67</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -496,6 +496,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42606.882847222223</v>
+      </c>
+      <c r="B3">
+        <v>64</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,6 +540,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42607.89166666667</v>
+      </c>
+      <c r="B4">
+        <v>47</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -584,6 +584,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42608.901620370372</v>
+      </c>
+      <c r="B5">
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -628,6 +628,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42611.887638888889</v>
+      </c>
+      <c r="B6">
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -672,6 +672,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42612.895381944443</v>
+      </c>
+      <c r="B7">
+        <v>58</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -716,6 +716,182 @@
         <v>14</v>
       </c>
     </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42613.76190972222</v>
+      </c>
+      <c r="B8">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42613.891898148147</v>
+      </c>
+      <c r="B9">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42614.889270833337</v>
+      </c>
+      <c r="B10">
+        <v>19</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42615.887835648151</v>
+      </c>
+      <c r="B11">
+        <v>96</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -892,6 +892,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42619.894409722219</v>
+      </c>
+      <c r="B12">
+        <v>48</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -936,6 +936,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42620.891203703701</v>
+      </c>
+      <c r="B13">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -980,6 +980,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42621.89435185185</v>
+      </c>
+      <c r="B14">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,6 +1024,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42622.891481481478</v>
+      </c>
+      <c r="B15">
+        <v>94</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
+++ b/StockPredictor/bin/Debug/Packages/Data/IBB/IBBRandom.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1068,6 +1068,50 @@
         <v>14</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42625.886689814812</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
